--- a/src/test/resources/dataRepo/InputDataNew.xlsx
+++ b/src/test/resources/dataRepo/InputDataNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARUN\VtigerCRM\SDET37\src\test\resources\dataRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76479B77-761D-4CBE-A84B-362763B460DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C69A00-A101-4108-A607-EDE406492756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateProject" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="218">
   <si>
     <t>ProjectId</t>
   </si>
@@ -633,9 +633,6 @@
     <t>SalesOrder- Invoice status</t>
   </si>
   <si>
-    <t>Due date selected sucessfully</t>
-  </si>
-  <si>
     <t>AutoCreated</t>
   </si>
   <si>
@@ -688,6 +685,15 @@
   </si>
   <si>
     <t>Closed Lost</t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -729,10 +735,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,7 +1227,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1250,7 +1255,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80513F2-673E-48C7-90D9-9C3AAE0CDB56}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1468,10 +1473,10 @@
         <v>196</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1491,10 +1496,10 @@
         <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1511,13 +1516,13 @@
         <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1534,10 +1539,10 @@
         <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1554,10 +1559,10 @@
         <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1574,7 +1579,7 @@
         <v>199</v>
       </c>
       <c r="G6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1588,7 +1593,7 @@
         <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1598,11 +1603,8 @@
       <c r="C8" t="s">
         <v>189</v>
       </c>
-      <c r="E8" t="s">
-        <v>201</v>
-      </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1613,7 +1615,7 @@
         <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1624,7 +1626,7 @@
         <v>191</v>
       </c>
       <c r="G10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1635,7 +1637,7 @@
         <v>181</v>
       </c>
       <c r="G11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3086,49 +3088,58 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA97D25D-92EF-4535-9534-D0DCE7E4E6D7}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="2">
-        <v>44803</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>120</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3142,28 +3153,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="2">
-        <v>44772</v>
+      <c r="B2" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/dataRepo/InputDataNew.xlsx
+++ b/src/test/resources/dataRepo/InputDataNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARUN\VtigerCRM\SDET37\src\test\resources\dataRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C69A00-A101-4108-A607-EDE406492756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C28C049-B668-4036-9506-261975CACE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3091,7 +3091,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/dataRepo/InputDataNew.xlsx
+++ b/src/test/resources/dataRepo/InputDataNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARUN\VtigerCRM\SDET37\src\test\resources\dataRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C28C049-B668-4036-9506-261975CACE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24184F3-EFD7-4792-AD08-F6586484A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateProject" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Documents" sheetId="15" r:id="rId14"/>
     <sheet name="Campaign" sheetId="16" r:id="rId15"/>
     <sheet name="AllDropDown" sheetId="17" r:id="rId16"/>
+    <sheet name="DataProvider" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="227">
   <si>
     <t>ProjectId</t>
   </si>
@@ -694,6 +695,33 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>pondichery</t>
+  </si>
+  <si>
+    <t>madurai</t>
+  </si>
+  <si>
+    <t>vellore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vellore </t>
+  </si>
+  <si>
+    <t>ambur</t>
+  </si>
+  <si>
+    <t>kanyakumari</t>
+  </si>
+  <si>
+    <t>kaniyakumari</t>
   </si>
 </sst>
 </file>
@@ -1750,6 +1778,113 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3515E8-37C2-4296-A442-F80CCC74F8D5}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8">
+        <v>4000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86E1374-09C6-41EE-923D-F04164B8E5DD}">
   <dimension ref="A1:H2"/>
@@ -3090,7 +3225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA97D25D-92EF-4535-9534-D0DCE7E4E6D7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/dataRepo/InputDataNew.xlsx
+++ b/src/test/resources/dataRepo/InputDataNew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARUN\VtigerCRM\SDET37\src\test\resources\dataRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24184F3-EFD7-4792-AD08-F6586484A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0F3BA2-EE1C-4C80-BC12-5F863FF63518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateProject" sheetId="1" r:id="rId1"/>
@@ -1782,7 +1782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3515E8-37C2-4296-A442-F80CCC74F8D5}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86E1374-09C6-41EE-923D-F04164B8E5DD}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
